--- a/Parte 2/population.xlsx
+++ b/Parte 2/population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22mat\OneDrive\Ambiente de Trabalho\SIBD\Parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE11BCC1-E720-4B4E-AC2C-44F90390878E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BD99F2-3523-47DC-87B8-326BB0298A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="741" firstSheet="1" activeTab="11" xr2:uid="{75813A77-1D6B-461F-8A70-03AF984B1856}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="741" activeTab="3" xr2:uid="{75813A77-1D6B-461F-8A70-03AF984B1856}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -1057,9 +1057,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +1129,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1174,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1215,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1240,6 +1246,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,10 +1568,10 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
@@ -1570,12 +1579,12 @@
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>167747525</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>305855662</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>356371980</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>311761763</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>228008522</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>264174186</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>191297615</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>112904777</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>286892634</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>189735813</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>200891170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>303561718</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>391196570</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>123359694</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>375347917</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>204634946</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>166360090</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1851,11 +1860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15542B8-AA33-4846-8031-CE04C49CBEF3}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
@@ -1866,7 +1875,7 @@
     <col min="8" max="8" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -1874,7 +1883,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1903,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="21" t="s">
         <v>179</v>
       </c>
@@ -1914,7 +1923,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="21" t="s">
         <v>179</v>
       </c>
@@ -1934,7 +1943,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="21" t="s">
         <v>179</v>
       </c>
@@ -1954,7 +1963,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="22" t="s">
         <v>143</v>
       </c>
@@ -1974,7 +1983,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="21" t="s">
         <v>161</v>
       </c>
@@ -1994,7 +2003,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
         <v>169</v>
       </c>
@@ -2014,7 +2023,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
@@ -2034,7 +2043,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="23" t="s">
         <v>121</v>
       </c>
@@ -2054,7 +2063,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="23" t="s">
         <v>121</v>
       </c>
@@ -2074,7 +2083,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="22" t="s">
         <v>160</v>
       </c>
@@ -2094,7 +2103,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="21" t="s">
         <v>152</v>
       </c>
@@ -2114,7 +2123,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="22" t="s">
         <v>170</v>
       </c>
@@ -2134,7 +2143,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="22" t="s">
         <v>170</v>
       </c>
@@ -2154,7 +2163,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="22" t="s">
         <v>170</v>
       </c>
@@ -2174,7 +2183,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="21" t="s">
         <v>159</v>
       </c>
@@ -2194,7 +2203,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="21" t="s">
         <v>159</v>
       </c>
@@ -2214,7 +2223,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
@@ -2234,7 +2243,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="22" t="s">
         <v>177</v>
       </c>
@@ -2254,7 +2263,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="21" t="s">
         <v>148</v>
       </c>
@@ -2274,7 +2283,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="21" t="s">
         <v>148</v>
       </c>
@@ -2294,7 +2303,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="21" t="s">
         <v>148</v>
       </c>
@@ -2314,7 +2323,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="22" t="s">
         <v>140</v>
       </c>
@@ -2335,7 +2344,7 @@
       <c r="L24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>158</v>
       </c>
@@ -2354,7 +2363,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
@@ -2373,7 +2382,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="23" t="s">
         <v>158</v>
       </c>
@@ -2392,7 +2401,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="21" t="s">
         <v>290</v>
       </c>
@@ -2411,7 +2420,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="24" t="s">
         <v>150</v>
       </c>
@@ -2428,7 +2437,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="23" t="s">
         <v>122</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="23" t="s">
         <v>122</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="23" t="s">
         <v>122</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="23" t="s">
         <v>122</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="22" t="s">
         <v>173</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="22" t="s">
         <v>173</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="23" t="s">
         <v>174</v>
       </c>
@@ -2528,7 +2537,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="23" t="s">
         <v>174</v>
       </c>
@@ -2544,7 +2553,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="23" t="s">
         <v>174</v>
       </c>
@@ -2560,7 +2569,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>174</v>
       </c>
@@ -2576,7 +2585,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="22" t="s">
         <v>155</v>
       </c>
@@ -2592,7 +2601,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="23" t="s">
         <v>147</v>
       </c>
@@ -2608,7 +2617,7 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="23" t="s">
         <v>147</v>
       </c>
@@ -2624,7 +2633,7 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="23" t="s">
         <v>147</v>
       </c>
@@ -2640,7 +2649,7 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="22" t="s">
         <v>128</v>
       </c>
@@ -2656,7 +2665,7 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="23" t="s">
         <v>129</v>
       </c>
@@ -2672,7 +2681,7 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="23" t="s">
         <v>129</v>
       </c>
@@ -2688,7 +2697,7 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="23" t="s">
         <v>129</v>
       </c>
@@ -2704,7 +2713,7 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="23" t="s">
         <v>129</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="22" t="s">
         <v>172</v>
       </c>
@@ -2736,7 +2745,7 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="22" t="s">
         <v>172</v>
       </c>
@@ -2752,7 +2761,7 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="22" t="s">
         <v>172</v>
       </c>
@@ -2766,25 +2775,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="B55" s="7"/>
       <c r="D55" s="7"/>
     </row>
@@ -2805,7 +2814,7 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2815,22 +2824,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DE0ABC-63DE-49A6-82A7-EC54EA674645}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="21" t="s">
         <v>159</v>
       </c>
@@ -2852,7 +2861,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
         <v>159</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>159</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
         <v>177</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>148</v>
       </c>
@@ -2897,7 +2906,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
         <v>148</v>
       </c>
@@ -2908,7 +2917,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>148</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
         <v>140</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="23" t="s">
         <v>158</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
         <v>158</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="23" t="s">
         <v>158</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
         <v>290</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="24" t="s">
         <v>150</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="23" t="s">
         <v>122</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="23" t="s">
         <v>122</v>
       </c>
@@ -3039,11 +3048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9230077A-47A6-4E0E-8CA7-D086EFB3D7F8}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
@@ -3054,12 +3063,12 @@
     <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="21" t="s">
         <v>179</v>
       </c>
@@ -3095,45 +3104,45 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
         <v>143</v>
       </c>
@@ -3154,7 +3163,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>161</v>
       </c>
@@ -3169,12 +3178,12 @@
       </c>
       <c r="E7" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
-        <v>The problem is solved</v>
+        <v>The problem is not solved</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>169</v>
       </c>
@@ -3188,32 +3197,32 @@
         <v>27</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8:E51" ca="1" si="0">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>121</v>
       </c>
@@ -3227,53 +3236,53 @@
         <v>29</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
         <v>160</v>
       </c>
@@ -3287,13 +3296,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
         <v>152</v>
       </c>
@@ -3307,67 +3316,67 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
         <v>159</v>
       </c>
@@ -3381,47 +3390,47 @@
         <v>38</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="22" t="s">
         <v>177</v>
       </c>
@@ -3435,11 +3444,11 @@
         <v>26</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
         <v>148</v>
       </c>
@@ -3453,11 +3462,11 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
         <v>148</v>
       </c>
@@ -3471,11 +3480,11 @@
         <v>27</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
         <v>148</v>
       </c>
@@ -3489,11 +3498,11 @@
         <v>54</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="22" t="s">
         <v>140</v>
       </c>
@@ -3507,65 +3516,65 @@
         <v>33</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="23" t="s">
         <v>158</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="23" t="s">
         <v>158</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="23" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="24" t="s">
         <v>150</v>
       </c>
@@ -3579,83 +3588,83 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="22" t="s">
         <v>173</v>
       </c>
@@ -3669,11 +3678,11 @@
         <v>34</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="22" t="s">
         <v>173</v>
       </c>
@@ -3687,11 +3696,11 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="23" t="s">
         <v>174</v>
       </c>
@@ -3705,65 +3714,65 @@
         <v>38</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="22" t="s">
         <v>155</v>
       </c>
@@ -3777,11 +3786,11 @@
         <v>34</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="23" t="s">
         <v>147</v>
       </c>
@@ -3795,47 +3804,47 @@
         <v>27</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="23" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="23" t="s">
         <v>147</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="22" t="s">
         <v>128</v>
       </c>
@@ -3849,29 +3858,29 @@
         <v>33</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is not solved</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is solved</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="23" t="s">
         <v>129</v>
       </c>
@@ -3885,11 +3894,11 @@
         <v>30</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="23" t="s">
         <v>129</v>
       </c>
@@ -3903,85 +3912,85 @@
         <v>29</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is not solved</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E49" s="27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E50" s="27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>The problem is solved</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
+        <v>The problem is not solved</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E51" s="27" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),"The problem is solved","The problem is not solved")</f>
         <v>The problem is solved</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E51">
-    <sortCondition ref="A3:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E52">
+    <sortCondition ref="A1:A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3996,18 +4005,18 @@
       <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.21875" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4111,27 +4120,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
@@ -4148,18 +4157,18 @@
       <selection activeCell="A5" sqref="A5:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4231,7 +4240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4239,39 +4248,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
@@ -4282,13 +4291,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2365661-38AB-402F-BBFC-2D1C671793B7}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -4298,12 +4307,12 @@
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4320,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
@@ -4354,7 +4363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -4405,7 +4414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
@@ -4456,7 +4465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>87</v>
       </c>
@@ -4517,7 +4526,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
@@ -4539,7 +4548,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -4583,7 +4592,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>96</v>
       </c>
@@ -4605,7 +4614,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>97</v>
       </c>
@@ -4627,7 +4636,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
@@ -4649,7 +4658,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>99</v>
       </c>
@@ -4671,7 +4680,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
@@ -4693,7 +4702,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>106</v>
       </c>
@@ -4709,13 +4718,13 @@
       <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>107</v>
       </c>
@@ -4737,7 +4746,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>110</v>
       </c>
@@ -4759,7 +4768,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
@@ -4781,7 +4790,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>113</v>
       </c>
@@ -4803,7 +4812,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>116</v>
       </c>
@@ -4825,7 +4834,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
         <v>117</v>
       </c>
@@ -4847,9 +4856,17 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4861,317 +4878,317 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="7" t="s">
         <v>164</v>
       </c>
@@ -5192,18 +5209,18 @@
       <selection activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5211,7 +5228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
@@ -5219,7 +5236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>177</v>
       </c>
@@ -5228,7 +5245,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>148</v>
       </c>
@@ -5236,7 +5253,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -5252,7 +5269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>176</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>175</v>
       </c>
@@ -5268,7 +5285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -5276,7 +5293,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>131</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>140</v>
       </c>
@@ -5292,7 +5309,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>141</v>
       </c>
@@ -5300,7 +5317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>158</v>
       </c>
@@ -5308,7 +5325,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>123</v>
       </c>
@@ -5317,7 +5334,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>142</v>
       </c>
@@ -5325,7 +5342,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>167</v>
       </c>
@@ -5333,7 +5350,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>132</v>
       </c>
@@ -5341,7 +5358,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>149</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>150</v>
       </c>
@@ -5357,7 +5374,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>124</v>
       </c>
@@ -5365,7 +5382,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>122</v>
       </c>
@@ -5373,7 +5390,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>157</v>
       </c>
@@ -5394,18 +5411,18 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5413,7 +5430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>179</v>
       </c>
@@ -5421,7 +5438,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>136</v>
       </c>
@@ -5429,7 +5446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>143</v>
       </c>
@@ -5437,7 +5454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>126</v>
       </c>
@@ -5445,7 +5462,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>144</v>
       </c>
@@ -5454,7 +5471,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>151</v>
       </c>
@@ -5462,7 +5479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
@@ -5470,7 +5487,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
@@ -5478,7 +5495,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
@@ -5486,7 +5503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>161</v>
       </c>
@@ -5494,7 +5511,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>178</v>
       </c>
@@ -5502,7 +5519,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>135</v>
       </c>
@@ -5510,7 +5527,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -5518,7 +5535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>153</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>180</v>
       </c>
@@ -5534,7 +5551,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>121</v>
       </c>
@@ -5542,7 +5559,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -5550,7 +5567,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>160</v>
       </c>
@@ -5558,7 +5575,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>127</v>
       </c>
@@ -5566,7 +5583,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>152</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -5592,10 +5609,10 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E20"/>
+      <selection activeCell="F18" sqref="F18:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -5605,12 +5622,12 @@
     <col min="10" max="10" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5657,7 @@
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>139</v>
       </c>
@@ -5670,27 +5687,27 @@
       </c>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>213</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>143</v>
@@ -5700,27 +5717,27 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>170</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>126</v>
@@ -5730,27 +5747,27 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>170</v>
+        <v>206</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>144</v>
@@ -5760,27 +5777,27 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>151</v>
@@ -5790,27 +5807,27 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>125</v>
@@ -5820,27 +5837,27 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>171</v>
@@ -5850,27 +5867,27 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>207</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>134</v>
@@ -5880,21 +5897,21 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>144</v>
+        <v>202</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>110</v>
@@ -5910,27 +5927,27 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>178</v>
@@ -5940,27 +5957,27 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>209</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>135</v>
@@ -5970,27 +5987,27 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>169</v>
@@ -6000,27 +6017,27 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>125</v>
+        <v>216</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>153</v>
@@ -6030,27 +6047,27 @@
       </c>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>180</v>
@@ -6060,27 +6077,27 @@
       </c>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="D17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>121</v>
@@ -6090,21 +6107,21 @@
       </c>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>180</v>
+        <v>162</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>75</v>
@@ -6120,27 +6137,27 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>160</v>
@@ -6150,27 +6167,27 @@
       </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>127</v>
@@ -6180,7 +6197,7 @@
       </c>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -6192,7 +6209,7 @@
       </c>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="K22" s="12" t="s">
         <v>170</v>
       </c>
@@ -6202,6 +6219,9 @@
       <c r="M22" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G22">
+    <sortCondition ref="F1:F22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6214,19 +6234,19 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
@@ -6238,7 +6258,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
@@ -6250,7 +6270,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>148</v>
       </c>
@@ -6262,7 +6282,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>157</v>
       </c>
@@ -6274,7 +6294,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>175</v>
       </c>
@@ -6286,7 +6306,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>177</v>
       </c>
@@ -6298,7 +6318,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>141</v>
       </c>
@@ -6310,7 +6330,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
@@ -6322,7 +6342,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
@@ -6334,7 +6354,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>132</v>
       </c>
@@ -6346,7 +6366,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>133</v>
       </c>
@@ -6358,7 +6378,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>141</v>
       </c>
@@ -6370,7 +6390,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>158</v>
       </c>
@@ -6382,7 +6402,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>157</v>
       </c>
@@ -6394,7 +6414,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>149</v>
       </c>
@@ -6406,7 +6426,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>133</v>
       </c>
@@ -6418,7 +6438,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>123</v>
       </c>
@@ -6430,7 +6450,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>132</v>
       </c>
@@ -6442,7 +6462,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>175</v>
       </c>
@@ -6454,10 +6474,10 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="G22" s="7"/>
     </row>
   </sheetData>
